--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H2">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>161.564108165124</v>
+        <v>198.3743706640611</v>
       </c>
       <c r="R2">
-        <v>161.564108165124</v>
+        <v>1785.36933597655</v>
       </c>
       <c r="S2">
-        <v>0.001254312671729533</v>
+        <v>0.0008746542281164047</v>
       </c>
       <c r="T2">
-        <v>0.001254312671729533</v>
+        <v>0.0008746542281164046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H3">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>663.2903320276881</v>
+        <v>820.7348405600891</v>
       </c>
       <c r="R3">
-        <v>663.2903320276881</v>
+        <v>7386.6135650408</v>
       </c>
       <c r="S3">
-        <v>0.005149494389234726</v>
+        <v>0.003618709393029356</v>
       </c>
       <c r="T3">
-        <v>0.005149494389234726</v>
+        <v>0.003618709393029355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H4">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>1763.392163422573</v>
+        <v>2165.889433821</v>
       </c>
       <c r="R4">
-        <v>1763.392163422573</v>
+        <v>19493.004904389</v>
       </c>
       <c r="S4">
-        <v>0.01369020112777095</v>
+        <v>0.009549642650825493</v>
       </c>
       <c r="T4">
-        <v>0.01369020112777095</v>
+        <v>0.009549642650825493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H5">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I5">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J5">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>1755.865283207349</v>
+        <v>2499.867322987873</v>
       </c>
       <c r="R5">
-        <v>1755.865283207349</v>
+        <v>22498.80590689085</v>
       </c>
       <c r="S5">
-        <v>0.01363176574048248</v>
+        <v>0.01102218757625783</v>
       </c>
       <c r="T5">
-        <v>0.01363176574048248</v>
+        <v>0.01102218757625783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H6">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I6">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J6">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>421.007602827948</v>
+        <v>581.134929617339</v>
       </c>
       <c r="R6">
-        <v>421.007602827948</v>
+        <v>5230.214366556051</v>
       </c>
       <c r="S6">
-        <v>0.003268517847923616</v>
+        <v>0.002562287263190398</v>
       </c>
       <c r="T6">
-        <v>0.003268517847923616</v>
+        <v>0.002562287263190398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H7">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>3457.278955509062</v>
+        <v>3472.176738320321</v>
       </c>
       <c r="R7">
-        <v>3457.278955509062</v>
+        <v>31249.59064488289</v>
       </c>
       <c r="S7">
-        <v>0.0268407931244655</v>
+        <v>0.01530920579494744</v>
       </c>
       <c r="T7">
-        <v>0.0268407931244655</v>
+        <v>0.01530920579494744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H8">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J8">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>14193.62092456969</v>
+        <v>14365.44656541187</v>
       </c>
       <c r="R8">
-        <v>14193.62092456969</v>
+        <v>129289.0190887068</v>
       </c>
       <c r="S8">
-        <v>0.1101930297861558</v>
+        <v>0.06333882010643274</v>
       </c>
       <c r="T8">
-        <v>0.1101930297861558</v>
+        <v>0.06333882010643273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H9">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J9">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>37734.48624294445</v>
+        <v>37909.89170986434</v>
       </c>
       <c r="R9">
-        <v>37734.48624294445</v>
+        <v>341189.0253887791</v>
       </c>
       <c r="S9">
-        <v>0.2929539536550731</v>
+        <v>0.1671488456924694</v>
       </c>
       <c r="T9">
-        <v>0.2929539536550731</v>
+        <v>0.1671488456924694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H10">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I10">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J10">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>37573.41999584125</v>
+        <v>43755.55742765166</v>
       </c>
       <c r="R10">
-        <v>37573.41999584125</v>
+        <v>393800.0168488649</v>
       </c>
       <c r="S10">
-        <v>0.2917035061576439</v>
+        <v>0.1929230231686331</v>
       </c>
       <c r="T10">
-        <v>0.2917035061576439</v>
+        <v>0.1929230231686331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H11">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I11">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J11">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>9009.05988277279</v>
+        <v>10171.69293436504</v>
       </c>
       <c r="R11">
-        <v>9009.05988277279</v>
+        <v>91545.23640928532</v>
       </c>
       <c r="S11">
-        <v>0.06994237828975557</v>
+        <v>0.04484810312119582</v>
       </c>
       <c r="T11">
-        <v>0.06994237828975557</v>
+        <v>0.04484810312119582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H12">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I12">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J12">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>131.7868349079304</v>
+        <v>134.2689181462282</v>
       </c>
       <c r="R12">
-        <v>131.7868349079304</v>
+        <v>1208.420263316054</v>
       </c>
       <c r="S12">
-        <v>0.00102313501971119</v>
+        <v>0.0005920062988383308</v>
       </c>
       <c r="T12">
-        <v>0.00102313501971119</v>
+        <v>0.0005920062988383308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H13">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I13">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J13">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>541.0417850579803</v>
+        <v>555.5111719221937</v>
       </c>
       <c r="R13">
-        <v>541.0417850579803</v>
+        <v>4999.600547299744</v>
       </c>
       <c r="S13">
-        <v>0.004200410441654543</v>
+        <v>0.002449309321870334</v>
       </c>
       <c r="T13">
-        <v>0.004200410441654543</v>
+        <v>0.002449309321870334</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H14">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I14">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J14">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>1438.387984547883</v>
+        <v>1465.97380563828</v>
       </c>
       <c r="R14">
-        <v>1438.387984547883</v>
+        <v>13193.76425074452</v>
       </c>
       <c r="S14">
-        <v>0.01116701163626003</v>
+        <v>0.006463638337539104</v>
       </c>
       <c r="T14">
-        <v>0.01116701163626003</v>
+        <v>0.006463638337539104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H15">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I15">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J15">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>1432.248355322302</v>
+        <v>1692.025435761087</v>
       </c>
       <c r="R15">
-        <v>1432.248355322302</v>
+        <v>15228.22892184978</v>
       </c>
       <c r="S15">
-        <v>0.01111934625547201</v>
+        <v>0.007460324620135277</v>
       </c>
       <c r="T15">
-        <v>0.01111934625547201</v>
+        <v>0.007460324620135276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.89880376558533</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H16">
-        <v>5.89880376558533</v>
+        <v>18.026882</v>
       </c>
       <c r="I16">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J16">
-        <v>0.03017601296685985</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>343.4132746374866</v>
+        <v>393.3389078211238</v>
       </c>
       <c r="R16">
-        <v>343.4132746374866</v>
+        <v>3540.050170390115</v>
       </c>
       <c r="S16">
-        <v>0.00266610961376208</v>
+        <v>0.00173427412854176</v>
       </c>
       <c r="T16">
-        <v>0.00266610961376208</v>
+        <v>0.00173427412854176</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H17">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I17">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J17">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>305.2306216902297</v>
+        <v>2975.676367561906</v>
       </c>
       <c r="R17">
-        <v>305.2306216902297</v>
+        <v>26781.08730805716</v>
       </c>
       <c r="S17">
-        <v>0.002369676290941103</v>
+        <v>0.01312008152908841</v>
       </c>
       <c r="T17">
-        <v>0.002369676290941103</v>
+        <v>0.01312008152908841</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H18">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I18">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J18">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>1253.10332044177</v>
+        <v>12311.27418785959</v>
       </c>
       <c r="R18">
-        <v>1253.10332044177</v>
+        <v>110801.4676907363</v>
       </c>
       <c r="S18">
-        <v>0.009728543001704618</v>
+        <v>0.05428175013670035</v>
       </c>
       <c r="T18">
-        <v>0.009728543001704618</v>
+        <v>0.05428175013670034</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H19">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I19">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J19">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>3331.440952064986</v>
+        <v>32489.00541636756</v>
       </c>
       <c r="R19">
-        <v>3331.440952064986</v>
+        <v>292401.0487473081</v>
       </c>
       <c r="S19">
-        <v>0.02586384221564278</v>
+        <v>0.1432475670097781</v>
       </c>
       <c r="T19">
-        <v>0.02586384221564278</v>
+        <v>0.1432475670097781</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H20">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I20">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J20">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>3317.220997190277</v>
+        <v>37498.77612795332</v>
       </c>
       <c r="R20">
-        <v>3317.220997190277</v>
+        <v>337488.9851515799</v>
       </c>
       <c r="S20">
-        <v>0.02575344474065075</v>
+        <v>0.1653361922697551</v>
       </c>
       <c r="T20">
-        <v>0.02575344474065075</v>
+        <v>0.1653361922697551</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.6621806104999</v>
+        <v>133.1709713333333</v>
       </c>
       <c r="H21">
-        <v>13.6621806104999</v>
+        <v>399.512914</v>
       </c>
       <c r="I21">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="J21">
-        <v>0.06989046519283849</v>
+        <v>0.4144206853098676</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N21">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q21">
-        <v>795.3772270766476</v>
+        <v>8717.202079272198</v>
       </c>
       <c r="R21">
-        <v>795.3772270766476</v>
+        <v>78454.81871344979</v>
       </c>
       <c r="S21">
-        <v>0.006174958943899242</v>
+        <v>0.03843509436454563</v>
       </c>
       <c r="T21">
-        <v>0.006174958943899242</v>
+        <v>0.03843509436454563</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H22">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I22">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J22">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N22">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q22">
-        <v>311.4107641303484</v>
+        <v>399.8314051540465</v>
       </c>
       <c r="R22">
-        <v>311.4107641303484</v>
+        <v>3598.482646386419</v>
       </c>
       <c r="S22">
-        <v>0.002417656198507032</v>
+        <v>0.001762900257130175</v>
       </c>
       <c r="T22">
-        <v>0.002417656198507032</v>
+        <v>0.001762900257130175</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H23">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I23">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J23">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N23">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q23">
-        <v>1278.475470095796</v>
+        <v>1654.22359481982</v>
       </c>
       <c r="R23">
-        <v>1278.475470095796</v>
+        <v>14888.01235337838</v>
       </c>
       <c r="S23">
-        <v>0.00992552121166408</v>
+        <v>0.007293652182061842</v>
       </c>
       <c r="T23">
-        <v>0.00992552121166408</v>
+        <v>0.007293652182061842</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H24">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I24">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J24">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N24">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q24">
-        <v>3398.894143689715</v>
+        <v>4365.43598265258</v>
       </c>
       <c r="R24">
-        <v>3398.894143689715</v>
+        <v>39288.92384387322</v>
       </c>
       <c r="S24">
-        <v>0.02638751912609264</v>
+        <v>0.01924768319121534</v>
       </c>
       <c r="T24">
-        <v>0.02638751912609264</v>
+        <v>0.01924768319121534</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H25">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I25">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J25">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N25">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q25">
-        <v>3384.38627095758</v>
+        <v>5038.581652977648</v>
       </c>
       <c r="R25">
-        <v>3384.38627095758</v>
+        <v>45347.23487679883</v>
       </c>
       <c r="S25">
-        <v>0.02627488638349638</v>
+        <v>0.02221565584170016</v>
       </c>
       <c r="T25">
-        <v>0.02627488638349638</v>
+        <v>0.02221565584170016</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.9388049601407</v>
+        <v>17.89372566666666</v>
       </c>
       <c r="H26">
-        <v>13.9388049601407</v>
+        <v>53.681177</v>
       </c>
       <c r="I26">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810961</v>
       </c>
       <c r="J26">
-        <v>0.07130556905006635</v>
+        <v>0.05568428298810962</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N26">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q26">
-        <v>811.4815895083728</v>
+        <v>1171.300479568925</v>
       </c>
       <c r="R26">
-        <v>811.4815895083728</v>
+        <v>10541.70431612033</v>
       </c>
       <c r="S26">
-        <v>0.006299986130306221</v>
+        <v>0.0051643915160021</v>
       </c>
       <c r="T26">
-        <v>0.006299986130306221</v>
+        <v>0.0051643915160021</v>
       </c>
     </row>
   </sheetData>
